--- a/2.0.0/ValueSet-service-delivery-location-type.xlsx
+++ b/2.0.0/ValueSet-service-delivery-location-type.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/2.0.0/ValueSet-service-delivery-location-type.xlsx
+++ b/2.0.0/ValueSet-service-delivery-location-type.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/2.0.0/ValueSet-service-delivery-location-type.xlsx
+++ b/2.0.0/ValueSet-service-delivery-location-type.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from RoleCode" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Place_of_Service_C" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Place_of_Service" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
